--- a/paso1_multiclass_2500_LR_KNN_CART_RFC.xlsx
+++ b/paso1_multiclass_2500_LR_KNN_CART_RFC.xlsx
@@ -433,7 +433,7 @@
         </is>
       </c>
       <c r="C1" t="n">
-        <v>0.78</v>
+        <v>0.782</v>
       </c>
     </row>
     <row r="2">
@@ -448,7 +448,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.746</v>
+        <v>0.716</v>
       </c>
     </row>
     <row r="3">
@@ -463,7 +463,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.848</v>
+        <v>0.838</v>
       </c>
     </row>
     <row r="4">
@@ -478,7 +478,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.832</v>
+        <v>0.8139999999999999</v>
       </c>
     </row>
   </sheetData>
